--- a/бд.xlsx
+++ b/бд.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>транспорт</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>22.04.2023</t>
+  </si>
+  <si>
+    <t>24.04.2023</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -182,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -244,61 +247,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -311,7 +296,7 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -324,6 +309,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -333,7 +324,7 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -346,6 +337,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -355,7 +352,7 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -368,6 +365,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -829,7 +832,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,225 +880,325 @@
       <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13">
         <v>1000</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="13">
         <v>5000</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="7">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="14">
         <v>5000</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="14">
         <v>10000</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J4" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
         <v>1000</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J5" s="13">
         <v>5000</v>
       </c>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="I6" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
         <v>1000</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J7" s="13">
         <v>5000</v>
       </c>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="19"/>
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="13">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="19"/>
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J9" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="19"/>
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="13">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="19"/>
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="13">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1116,108 +1219,108 @@
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>1</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20">
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
         <v>1000</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="13">
         <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="14">
         <v>5000</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="14">
         <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="E19" s="19"/>
+      <c r="G19" s="5">
+        <v>3</v>
+      </c>
+      <c r="H19" s="14">
         <v>10000</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="14">
         <v>15000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="B20" s="17"/>
+      <c r="G20" s="5">
+        <v>4</v>
+      </c>
+      <c r="H20" s="14">
         <v>15000</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="14">
         <v>20000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
